--- a/Suppl_Table_DA.xlsx
+++ b/Suppl_Table_DA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="47">
   <si>
     <t>genus</t>
   </si>
@@ -39,58 +39,91 @@
     <t>score</t>
   </si>
   <si>
-    <t>g__Olsenella</t>
+    <t>Bifidobacterium</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
   <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>g__Lactobacillus</t>
-  </si>
-  <si>
-    <t>g__Mogibacterium</t>
-  </si>
-  <si>
-    <t>f__Lachnospiraceae_unclassified</t>
-  </si>
-  <si>
-    <t>g__Dorea</t>
-  </si>
-  <si>
-    <t>g__Lachnospira</t>
-  </si>
-  <si>
-    <t>g__Anaerotruncus</t>
-  </si>
-  <si>
-    <t>g__Butyricicoccus</t>
-  </si>
-  <si>
-    <t>g__Acidaminococcus</t>
-  </si>
-  <si>
-    <t>g__Megamonas</t>
-  </si>
-  <si>
-    <t>g__Mitsuokella</t>
-  </si>
-  <si>
-    <t>f__Erysipelotrichaceae_unclassified</t>
-  </si>
-  <si>
-    <t>g__[Eubacterium]</t>
-  </si>
-  <si>
-    <t>f__Victivallaceae_unclassified</t>
-  </si>
-  <si>
-    <t>Talaromyces_unclassified</t>
-  </si>
-  <si>
-    <t>Candida_parapsilosis_unclassified</t>
+    <t>Phocaeicola</t>
+  </si>
+  <si>
+    <t>Prevotella</t>
+  </si>
+  <si>
+    <t>Barnesiella</t>
+  </si>
+  <si>
+    <t>GCA-900199385</t>
+  </si>
+  <si>
+    <t>Bariatricus</t>
+  </si>
+  <si>
+    <t>Blautia_A</t>
+  </si>
+  <si>
+    <t>CAG-317</t>
+  </si>
+  <si>
+    <t>Choladocola</t>
+  </si>
+  <si>
+    <t>Coprococcus_A</t>
+  </si>
+  <si>
+    <t>Dorea</t>
+  </si>
+  <si>
+    <t>Dorea_A</t>
+  </si>
+  <si>
+    <t>Lachnoclostridium_B</t>
+  </si>
+  <si>
+    <t>Lachnospira</t>
+  </si>
+  <si>
+    <t>Eubacterium_R</t>
+  </si>
+  <si>
+    <t>Ruminococcus_E</t>
+  </si>
+  <si>
+    <t>Dysosmobacter</t>
+  </si>
+  <si>
+    <t>Gemmiger</t>
+  </si>
+  <si>
+    <t>Ligilactobacillus</t>
+  </si>
+  <si>
+    <t>Acidaminococcus</t>
+  </si>
+  <si>
+    <t>Mitsuokella</t>
+  </si>
+  <si>
+    <t>Mesosutterella</t>
+  </si>
+  <si>
+    <t>Sutterella</t>
+  </si>
+  <si>
+    <t>CAG.317</t>
+  </si>
+  <si>
+    <t>Candida_inconspicua_unclassified</t>
+  </si>
+  <si>
+    <t>Candida_albicans_unclassified</t>
+  </si>
+  <si>
+    <t>Basidiomycota_unclassified</t>
   </si>
   <si>
     <t>Malassezia_restricta</t>
@@ -467,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -476,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -512,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -521,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -529,16 +562,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -552,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -561,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -569,19 +602,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -592,16 +625,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -609,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -629,13 +662,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -652,16 +685,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -672,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -681,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -692,16 +725,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -709,10 +742,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -721,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -732,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -749,19 +782,19 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -769,10 +802,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -781,6 +814,206 @@
         <v>7</v>
       </c>
       <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
         <v>1</v>
       </c>
     </row>
@@ -791,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -800,7 +1033,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -828,26 +1061,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -855,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -864,7 +1077,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -894,36 +1107,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -934,21 +1147,41 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
@@ -1021,7 +1254,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1038,16 +1271,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1055,16 +1288,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1072,16 +1305,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1089,16 +1322,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1106,16 +1339,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1123,16 +1356,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1140,16 +1373,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1157,16 +1390,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1174,16 +1407,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1191,16 +1424,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1231,7 +1464,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/Suppl_Table_DA.xlsx
+++ b/Suppl_Table_DA.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Projects/00_progress/156_Diabetes_Sharjia/github/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C2CE0-4FD1-C64E-A887-0F681C0735D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="880" windowWidth="16100" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacterial control fdr &lt; 0.1" sheetId="1" r:id="rId1"/>
     <sheet name="Bacterial DM II fdr &lt; 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Fungal DM II fdr &lt; 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Fungal healthy fdr &lt; 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Fungal healthy fdr &lt; 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Fungal DM II fdr &lt; 0.1" sheetId="4" r:id="rId4"/>
     <sheet name="Metabolites control fdr &lt; 0.1" sheetId="5" r:id="rId5"/>
     <sheet name="Metabolites DM II fdr &lt; 0.1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -165,8 +171,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +218,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -258,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,9 +304,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,6 +356,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,25 +549,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -557,7 +607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -577,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -597,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -617,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -637,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -657,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -677,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -697,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -717,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -737,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -757,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -777,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -797,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -817,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -837,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -857,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -877,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -897,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -917,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -937,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -957,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -977,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -997,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1023,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1031,17 +1081,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,25 +1117,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1125,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1145,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1165,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1191,7 +1241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1199,17 +1249,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1243,16 +1293,16 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1269,7 +1319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1286,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1303,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1320,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1337,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1354,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1371,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1388,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1405,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1422,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1445,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1453,16 +1503,16 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
